--- a/new_MFC/new.xlsx
+++ b/new_MFC/new.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="37">
   <si>
-    <t>veh_mass</t>
+    <t>vehicle_mass</t>
   </si>
   <si>
     <t>top_speed</t>
@@ -70,7 +70,7 @@
     <t>motor_max_torque</t>
   </si>
   <si>
-    <t>tire_radius</t>
+    <t>tyre_radius</t>
   </si>
   <si>
     <t>sedan</t>
